--- a/biology/Zoologie/Angeln_(race_bovine)/Angeln_(race_bovine).xlsx
+++ b/biology/Zoologie/Angeln_(race_bovine)/Angeln_(race_bovine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Angeln rotvieh ou Angler (vache rouge d'Angeln) est une race bovine allemande. C'est une race rare originaire du Schleswig-Holstein classée dans la catégorie des races en danger extrême d'extinction pour sa variété ancienne[1].
+L'Angeln rotvieh ou Angler (vache rouge d'Angeln) est une race bovine allemande. C'est une race rare originaire du Schleswig-Holstein classée dans la catégorie des races en danger extrême d'extinction pour sa variété ancienne.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle appartient au rameau de races rouge de la Baltique. Elle est autochtone du nord de l'Allemagne, sur la péninsule d'Angeln, dans le Schleswig-Holstein. Elle est mentionnée depuis le XVIIIe siècle et possède un livre généalogique depuis 1879. Elle a subi une influence génétique de sa proche cousine, la rouge danoise et de red holstein afin d'augmenter ses performances laitières. Une petite population d'angler a échappé à ce métissage et est élevée en autarcie. Il existe donc un type ancien et un type moderne. L'effectif actuel représente 14 500 femelles et moins d'une centaine de mâles[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle appartient au rameau de races rouge de la Baltique. Elle est autochtone du nord de l'Allemagne, sur la péninsule d'Angeln, dans le Schleswig-Holstein. Elle est mentionnée depuis le XVIIIe siècle et possède un livre généalogique depuis 1879. Elle a subi une influence génétique de sa proche cousine, la rouge danoise et de red holstein afin d'augmenter ses performances laitières. Une petite population d'angler a échappé à ce métissage et est élevée en autarcie. Il existe donc un type ancien et un type moderne. L'effectif actuel représente 14 500 femelles et moins d'une centaine de mâles.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La vache porte une robe rouge acajou sombre, avec la tête et les pattes plus sombres encore, presque noires. Le taureau a 
 le dos rouge sombre et le reste chocolat noir à noir. Les cornes sont courtes, en croissant vers l'avant. La vache mesure 125 à 135 cm au garrot pour un poids de 550 à 630 kg. Le taureau mesure 150 cm pour 1 100 kg.
@@ -575,7 +591,9 @@
           <t>Qualités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une race laitière efficace. Elle donne un lait riche apte à la production de fromages typés : 5 300 kg de lait par lactation avec 4,7 % de taux butyreux et 3,5 % de taux protéique. La valorisation bouchère reste intéressante pour les vaches de réforme et les veaux.
 Sa variété moderne a été massivement exportée dans les années 1970 en URSS pour ses qualités laitières, en Ukraine, en Oudmourtie et les régions de Novgorod, Pskov, Léningrad, etc. 
